--- a/medicine/Enfance/Marius_Nottet/Marius_Nottet.xlsx
+++ b/medicine/Enfance/Marius_Nottet/Marius_Nottet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marius Nottet, né le 11 février 1992 à Soignies (province de Hainaut), est un illustrateur et auteur de bande dessinée belge francophone également connu sous le pseudonyme de Marius.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marius Nottet naît le 11 février 1992 à Soignies[1],[2]. Il est le fils du prolifique auteur et illustrateur d'albums pour l'enfance Rascal. Il grandit aux côtés de son frère Lucas Nottet[3]. Enfant Marius aime dessiner des histoires inventées par son frère Lucas qui mettent en scène une foule de héros dessinés en bulles et en cases[3].
-Il fait ses études secondaires à l’Institut d’Art de Saint-Luc à Bruxelles et il obtient son certificat d'enseignement secondaire supérieur artistique[1]. Puis, il se lance dans l’illustration jeunesse[2]. Il dessine son premier album La Pièce d’or écrit par son père et publié par Pastel, L’École des loisirs en 2014[4]. En 2017, il est lauréat d’une bourse de la Fédération Wallonie-Bruxelles - « Découverte »[1]. L'année suivante, il écrit seul Au Firmament chez le même éditeur[5].
-En 2020, il lance la série de bande dessinée jeunesse à vocation éducative Zack et Zoé, zététiciens en herbe sur des scénarios de Jean-Michel Abrassart publiés aux éditions Scepticisme Scientifique[6]. Il dessine le premier volume Enquête au Loch Ness en 2018, il enchaîne l'année suivante avec le second opus La Mythologie chrétienne qui est préfacée par le vulgarisateur et enseignant Richard Monvoisin. La Fête de Noël est publié en 2020, tandis que Rencontre avec les extraterrestres arrive en librairie en 2021. Le cinquième opus Les Légendes urbaines surnaturelles est publié en 2023[6].
-Il aime et pratique surtout le dessin direct dit « spontané »[2]. Il avoue encore que pour ses mises en couleur, il utilise principalement l'aquarelle, le marqueur à alcool et Photoshop[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marius Nottet naît le 11 février 1992 à Soignies,. Il est le fils du prolifique auteur et illustrateur d'albums pour l'enfance Rascal. Il grandit aux côtés de son frère Lucas Nottet. Enfant Marius aime dessiner des histoires inventées par son frère Lucas qui mettent en scène une foule de héros dessinés en bulles et en cases.
+Il fait ses études secondaires à l’Institut d’Art de Saint-Luc à Bruxelles et il obtient son certificat d'enseignement secondaire supérieur artistique. Puis, il se lance dans l’illustration jeunesse. Il dessine son premier album La Pièce d’or écrit par son père et publié par Pastel, L’École des loisirs en 2014. En 2017, il est lauréat d’une bourse de la Fédération Wallonie-Bruxelles - « Découverte ». L'année suivante, il écrit seul Au Firmament chez le même éditeur.
+En 2020, il lance la série de bande dessinée jeunesse à vocation éducative Zack et Zoé, zététiciens en herbe sur des scénarios de Jean-Michel Abrassart publiés aux éditions Scepticisme Scientifique. Il dessine le premier volume Enquête au Loch Ness en 2018, il enchaîne l'année suivante avec le second opus La Mythologie chrétienne qui est préfacée par le vulgarisateur et enseignant Richard Monvoisin. La Fête de Noël est publié en 2020, tandis que Rencontre avec les extraterrestres arrive en librairie en 2021. Le cinquième opus Les Légendes urbaines surnaturelles est publié en 2023.
+Il aime et pratique surtout le dessin direct dit « spontané ». Il avoue encore que pour ses mises en couleur, il utilise principalement l'aquarelle, le marqueur à alcool et Photoshop.
 </t>
         </is>
       </c>
@@ -547,15 +561,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums de bande dessinée
-Zack et Zoé, zététiciens en herbe
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Zack et Zoé, zététiciens en herbe
 1 Enquête au Loch Ness, Scepticisme Scientifique, octobre 2018Scénario : Jean-Michel Abrassart - Dessin et couleurs : Marius Nottet -  (ISBN 9782930891019),Noté troisième édition.
 2 La Mythologie chrétienne, Scepticisme Scientifique, octobre 2019Scénario : Jean-Michel Abrassart - Dessin et couleurs : Marius Nottet -  (ISBN 978-2-930891-02-6),Préface de Richard Monvoisin. Noté deuxième édition.
 3 La Fête de Noël, Scepticisme Scientifique, avril 2020Scénario : Jean-Michel Abrassart - Dessin et couleurs : Marius Nottet -  (ISBN 978-2-930891-03-3)
 4 Rencontre avec les extraterrestres, Scepticisme Scientifique, juillet 2021Scénario : Jean-Michel Abrassart - Dessin et couleurs : Marius Nottet -  (ISBN 978-2-930891-04-0)
-5 Les Légendes urbaines surnaturelles, Scepticisme Scientifique, 18 mars 2023Scénario : Jean-Michel Abrassart - Dessin et couleurs : Marius Nottet -  (ISBN 978-2-930891-07-1)
-Littérature jeunesse
-La Pièce d’or, texte de Rascal, illustration Marius, Pastel, L’École des loisirs, 19 mars 2014  (ISBN 9782211214421)
+5 Les Légendes urbaines surnaturelles, Scepticisme Scientifique, 18 mars 2023Scénario : Jean-Michel Abrassart - Dessin et couleurs : Marius Nottet -  (ISBN 978-2-930891-07-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marius_Nottet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marius_Nottet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Pièce d’or, texte de Rascal, illustration Marius, Pastel, L’École des loisirs, 19 mars 2014  (ISBN 9782211214421)
 Au Firmament, texte et dessin Marius, Pastel, L’École des loisirs, 21 février 2018  (ISBN 9782211232951)</t>
         </is>
       </c>
